--- a/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 20211.xlsx
+++ b/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="46">
   <si>
     <t>Mat</t>
   </si>
@@ -77,6 +77,84 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>ESPINOSA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>VIVAS</t>
+  </si>
+  <si>
+    <t>SILVESTRE</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>VALIENTE</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>SAUL</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>GERARDO RAUL</t>
+  </si>
+  <si>
+    <t>CRISTHIAN</t>
+  </si>
+  <si>
+    <t>YAHIR</t>
+  </si>
+  <si>
+    <t>ANGEL FIDEL</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>CHRISTOFER</t>
+  </si>
+  <si>
+    <t>YAIR</t>
   </si>
 </sst>
 </file>
@@ -480,16 +558,19 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>44.12</v>
+      </c>
+      <c r="H2">
+        <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -503,16 +584,19 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>44.12</v>
+      </c>
+      <c r="H3">
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -526,16 +610,19 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>57.58</v>
+      </c>
+      <c r="H4">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -549,16 +636,19 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>69.56999999999999</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +707,7 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -640,7 +730,7 @@
         <v>34</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -663,7 +753,7 @@
         <v>33</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -686,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -748,16 +838,19 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>44.12</v>
+      </c>
+      <c r="H2">
+        <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -771,16 +864,19 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>44.12</v>
+      </c>
+      <c r="H3">
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -794,16 +890,19 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>57.58</v>
+      </c>
+      <c r="H4">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -817,16 +916,19 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>69.56999999999999</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +938,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -869,6 +971,397 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920070</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920055</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21330051920153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21330051920153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>21330051920171</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>21330051920171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>21330051920177</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>21330051920177</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>21330051920178</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>21330051920178</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>21330051920182</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>21330051920182</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20330051920066</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 20211.xlsx
+++ b/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="49">
   <si>
     <t>Mat</t>
   </si>
@@ -79,21 +79,24 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
     <t>ESPINOSA</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
     <t>MOLOHUA</t>
   </si>
   <si>
@@ -109,15 +112,18 @@
     <t>SILVESTRE</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>VALIENTE</t>
+  </si>
+  <si>
     <t>CARRERA</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>VALIENTE</t>
-  </si>
-  <si>
     <t>MIXCOHUA</t>
   </si>
   <si>
@@ -127,19 +133,22 @@
     <t>ARIAS</t>
   </si>
   <si>
+    <t>SALVADOR</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>GERARDO RAUL</t>
+  </si>
+  <si>
+    <t>CRISTHIAN</t>
+  </si>
+  <si>
     <t>ALEXANDER</t>
   </si>
   <si>
     <t>SAUL</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>GERARDO RAUL</t>
-  </si>
-  <si>
-    <t>CRISTHIAN</t>
   </si>
   <si>
     <t>YAHIR</t>
@@ -938,7 +947,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -973,16 +982,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21330051920157</v>
+        <v>21330051920168</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -996,16 +1005,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>21330051920157</v>
+        <v>21330051920168</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1019,22 +1028,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>21330051920161</v>
+        <v>20330051920070</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1042,45 +1051,45 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21330051920161</v>
+        <v>19330051920055</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920070</v>
+        <v>21330051920153</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1088,39 +1097,39 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920055</v>
+        <v>21330051920153</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>21330051920153</v>
+        <v>21330051920157</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1134,16 +1143,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21330051920153</v>
+        <v>21330051920157</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1157,16 +1166,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>21330051920171</v>
+        <v>21330051920161</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1180,16 +1189,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>21330051920171</v>
+        <v>21330051920161</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1203,16 +1212,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>21330051920177</v>
+        <v>21330051920171</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1226,16 +1235,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>21330051920177</v>
+        <v>21330051920171</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1249,16 +1258,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>21330051920178</v>
+        <v>21330051920177</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1272,16 +1281,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>21330051920178</v>
+        <v>21330051920177</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1295,16 +1304,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>21330051920182</v>
+        <v>21330051920178</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1318,16 +1327,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>21330051920182</v>
+        <v>21330051920178</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1341,7 +1350,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>20330051920066</v>
+        <v>21330051920182</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -1350,15 +1359,61 @@
         <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>21330051920182</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20330051920066</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F20" t="s">
         <v>12</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 20211.xlsx
+++ b/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
   <si>
     <t>Mat</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MEDINA</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
@@ -134,6 +140,9 @@
   </si>
   <si>
     <t>SALVADOR</t>
+  </si>
+  <si>
+    <t>CRISTIAN JAHIR</t>
   </si>
   <si>
     <t>OSVALDO</t>
@@ -521,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,79 +593,53 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>19</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
       <c r="G3">
-        <v>44.12</v>
+        <v>57.58</v>
       </c>
       <c r="H3">
-        <v>9.5</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>57.58</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>69.56999999999999</v>
-      </c>
-      <c r="H5">
         <v>8</v>
       </c>
     </row>
@@ -667,7 +650,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -727,19 +710,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -750,47 +733,24 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -801,7 +761,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -864,79 +824,53 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>19</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
       <c r="G3">
-        <v>44.12</v>
+        <v>57.58</v>
       </c>
       <c r="H3">
-        <v>9.5</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>57.58</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>69.56999999999999</v>
-      </c>
-      <c r="H5">
         <v>8</v>
       </c>
     </row>
@@ -947,7 +881,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -988,10 +922,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1005,22 +939,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>21330051920168</v>
+        <v>20330051920081</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1031,13 +965,13 @@
         <v>20330051920070</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1054,13 +988,13 @@
         <v>19330051920055</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1077,13 +1011,13 @@
         <v>21330051920153</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1097,16 +1031,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>21330051920153</v>
+        <v>21330051920157</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1120,16 +1054,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>21330051920157</v>
+        <v>21330051920161</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1143,16 +1077,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21330051920157</v>
+        <v>21330051920171</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1166,16 +1100,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>21330051920161</v>
+        <v>21330051920177</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1189,16 +1123,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>21330051920161</v>
+        <v>21330051920178</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1212,16 +1146,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>21330051920171</v>
+        <v>21330051920182</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1235,185 +1169,24 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>21330051920171</v>
+        <v>20330051920066</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>21330051920177</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>21330051920177</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>21330051920178</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>21330051920178</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>21330051920182</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>21330051920182</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920066</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20">
         <v>6</v>
       </c>
     </row>
